--- a/FuseLinks/Elos_Linha.xlsx
+++ b/FuseLinks/Elos_Linha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,50 +451,60 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Fusivel Isolador</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Fusivel Consumidor</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Tempo Abertura Fase A Isolador</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase A Isolador</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Tempo Abertura Fase B Isolador</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase B Isolador</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Tempo Abertura Fase C Isolador</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase C Isolador</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Tempo Abertura Fase A Consumidor</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase A Consumidor</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Tempo Abertura Fase B Consumidor</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase B Consumidor</t>
         </is>
@@ -516,11 +526,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>1.69881</v>
-      </c>
-      <c r="E2" t="n">
-        <v>14.7666</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F2" t="n">
         <v>1.69881</v>
@@ -534,13 +548,11 @@
       <c r="I2" t="n">
         <v>14.7666</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J2" t="n">
+        <v>1.69881</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>14.7666</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -548,6 +560,14 @@
         </is>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -569,11 +589,13 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -605,6 +627,14 @@
         </is>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -626,11 +656,13 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -662,6 +694,14 @@
         </is>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -681,11 +721,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>1.69881</v>
-      </c>
-      <c r="E5" t="n">
-        <v>14.7666</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F5" t="n">
         <v>1.69881</v>
@@ -699,13 +743,11 @@
       <c r="I5" t="n">
         <v>14.7666</v>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J5" t="n">
+        <v>1.69881</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>14.7666</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -713,6 +755,14 @@
         </is>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -734,11 +784,13 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -770,6 +822,14 @@
         </is>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -789,11 +849,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>0.606475</v>
-      </c>
-      <c r="E7" t="n">
-        <v>23.1419</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F7" t="n">
         <v>0.606475</v>
@@ -807,13 +871,11 @@
       <c r="I7" t="n">
         <v>23.1419</v>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J7" t="n">
+        <v>0.606475</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>23.1419</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -821,6 +883,14 @@
         </is>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -842,11 +912,13 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -878,6 +950,14 @@
         </is>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -899,11 +979,13 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -935,6 +1017,14 @@
         </is>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,11 +1044,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>0.606475</v>
-      </c>
-      <c r="E10" t="n">
-        <v>23.142</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F10" t="n">
         <v>0.606475</v>
@@ -972,13 +1066,11 @@
       <c r="I10" t="n">
         <v>23.142</v>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J10" t="n">
+        <v>0.606475</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>23.142</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -986,6 +1078,14 @@
         </is>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1007,11 +1107,13 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1043,6 +1145,14 @@
         </is>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1062,11 +1172,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>1.24552</v>
-      </c>
-      <c r="E12" t="n">
-        <v>26.8927</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F12" t="n">
         <v>1.24552</v>
@@ -1080,13 +1194,11 @@
       <c r="I12" t="n">
         <v>26.8927</v>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J12" t="n">
+        <v>1.24552</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>26.8927</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1094,6 +1206,14 @@
         </is>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1115,11 +1235,13 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>11.9095</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1143,7 +1265,7 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>11.9095</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1151,6 +1273,14 @@
         </is>
       </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1172,11 +1302,13 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>14.3387</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1200,7 +1332,7 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>14.3387</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1208,6 +1340,14 @@
         </is>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1227,11 +1367,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>1.24552</v>
-      </c>
-      <c r="E15" t="n">
-        <v>26.8927</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F15" t="n">
         <v>1.24552</v>
@@ -1245,13 +1389,11 @@
       <c r="I15" t="n">
         <v>26.8927</v>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J15" t="n">
+        <v>1.24552</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>26.8927</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1259,6 +1401,14 @@
         </is>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1280,11 +1430,13 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1316,6 +1468,14 @@
         </is>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1335,11 +1495,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0.862413</v>
-      </c>
-      <c r="E17" t="n">
-        <v>32.088</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F17" t="n">
         <v>0.862413</v>
@@ -1353,13 +1517,11 @@
       <c r="I17" t="n">
         <v>32.088</v>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J17" t="n">
+        <v>0.862413</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>32.088</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1367,6 +1529,14 @@
         </is>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1388,11 +1558,13 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>13.4979</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1416,7 +1588,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>13.4979</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1424,6 +1596,14 @@
         </is>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1445,11 +1625,13 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>17.8736</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1473,7 +1655,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>17.8736</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1481,6 +1663,14 @@
         </is>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,11 +1690,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>0.862415</v>
-      </c>
-      <c r="E20" t="n">
-        <v>32.0879</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F20" t="n">
         <v>0.862415</v>
@@ -1518,13 +1712,11 @@
       <c r="I20" t="n">
         <v>32.0879</v>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J20" t="n">
+        <v>0.862415</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>32.0879</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1532,6 +1724,14 @@
         </is>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1553,11 +1753,13 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1589,6 +1791,14 @@
         </is>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1608,11 +1818,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>0.64937</v>
-      </c>
-      <c r="E22" t="n">
-        <v>36.7292</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F22" t="n">
         <v>0.64937</v>
@@ -1626,13 +1840,11 @@
       <c r="I22" t="n">
         <v>36.7292</v>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J22" t="n">
+        <v>0.64937</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>36.7292</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1640,6 +1852,14 @@
         </is>
       </c>
       <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1661,11 +1881,13 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>14.9727</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1689,7 +1911,7 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>14.9727</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1697,6 +1919,14 @@
         </is>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1718,11 +1948,13 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>20.9018</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1746,7 +1978,7 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>20.9018</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1754,6 +1986,14 @@
         </is>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1773,11 +2013,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>0.6493719999999999</v>
-      </c>
-      <c r="E25" t="n">
-        <v>36.7292</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F25" t="n">
         <v>0.6493719999999999</v>
@@ -1791,13 +2035,11 @@
       <c r="I25" t="n">
         <v>36.7292</v>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J25" t="n">
+        <v>0.6493719999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>36.7292</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1805,6 +2047,14 @@
         </is>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1826,11 +2076,13 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1862,6 +2114,14 @@
         </is>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1881,11 +2141,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>0.553457</v>
-      </c>
-      <c r="E27" t="n">
-        <v>39.6081</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F27" t="n">
         <v>0.553457</v>
@@ -1899,13 +2163,11 @@
       <c r="I27" t="n">
         <v>39.6081</v>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J27" t="n">
+        <v>0.553457</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>39.6081</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1913,6 +2175,14 @@
         </is>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1934,11 +2204,13 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>16.2437</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1962,7 +2234,7 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>16.2437</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1970,6 +2242,14 @@
         </is>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1991,11 +2271,13 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>22.2051</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2019,7 +2301,7 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>22.2051</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2027,6 +2309,14 @@
         </is>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,11 +2336,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>0.553458</v>
-      </c>
-      <c r="E30" t="n">
-        <v>39.6081</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F30" t="n">
         <v>0.553458</v>
@@ -2064,13 +2358,11 @@
       <c r="I30" t="n">
         <v>39.6081</v>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J30" t="n">
+        <v>0.553458</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>39.6081</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2078,6 +2370,14 @@
         </is>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2099,11 +2399,13 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2135,6 +2437,14 @@
         </is>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2156,11 +2466,13 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>51.4316</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2184,7 +2496,7 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>51.4316</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2192,6 +2504,14 @@
         </is>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2213,11 +2533,13 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>20.7712</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2241,7 +2563,7 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>20.7712</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2249,6 +2571,14 @@
         </is>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2270,11 +2600,13 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>28.9955</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2298,7 +2630,7 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>28.9955</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2306,6 +2638,14 @@
         </is>
       </c>
       <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2327,11 +2667,13 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>51.4315</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2355,7 +2697,7 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>51.4315</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -2363,6 +2705,14 @@
         </is>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,11 +2734,13 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2420,6 +2772,14 @@
         </is>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2439,11 +2799,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>0.195442</v>
-      </c>
-      <c r="E37" t="n">
-        <v>60.2168</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F37" t="n">
         <v>0.195442</v>
@@ -2457,13 +2821,11 @@
       <c r="I37" t="n">
         <v>60.2168</v>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J37" t="n">
+        <v>0.195442</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>60.2168</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2471,6 +2833,14 @@
         </is>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2492,11 +2862,13 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>24.2493</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2520,7 +2892,7 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>24.2493</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2528,6 +2900,14 @@
         </is>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2549,11 +2929,13 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>33.7255</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2577,7 +2959,7 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>33.7255</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2585,6 +2967,14 @@
         </is>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2604,11 +2994,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>0.195443</v>
-      </c>
-      <c r="E40" t="n">
-        <v>60.2166</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F40" t="n">
         <v>0.195443</v>
@@ -2622,13 +3016,11 @@
       <c r="I40" t="n">
         <v>60.2166</v>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J40" t="n">
+        <v>0.195443</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>60.2166</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2636,6 +3028,14 @@
         </is>
       </c>
       <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2657,11 +3057,13 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2693,6 +3095,14 @@
         </is>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2712,11 +3122,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>0.172417</v>
-      </c>
-      <c r="E42" t="n">
-        <v>63.6599</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F42" t="n">
         <v>0.172417</v>
@@ -2730,13 +3144,11 @@
       <c r="I42" t="n">
         <v>63.6599</v>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J42" t="n">
+        <v>0.172417</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>63.6599</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2744,6 +3156,14 @@
         </is>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2765,11 +3185,13 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>25.6882</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2793,7 +3215,7 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>25.6882</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2801,6 +3223,14 @@
         </is>
       </c>
       <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2822,11 +3252,13 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>35.6157</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2850,7 +3282,7 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>35.6157</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2858,6 +3290,14 @@
         </is>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2877,11 +3317,15 @@
           <t>Linha T2F</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>0.172417</v>
-      </c>
-      <c r="E45" t="n">
-        <v>63.6598</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F45" t="n">
         <v>0.172417</v>
@@ -2895,13 +3339,11 @@
       <c r="I45" t="n">
         <v>63.6598</v>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J45" t="n">
+        <v>0.172417</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>63.6598</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2909,6 +3351,14 @@
         </is>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,11 +3380,13 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2966,6 +3418,14 @@
         </is>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2987,11 +3447,13 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>14.9621</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -3015,14 +3477,22 @@
         </is>
       </c>
       <c r="K47" t="n">
+        <v>14.9621</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>14.9763</v>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
         <v>14.9728</v>
       </c>
     </row>
@@ -3044,11 +3514,13 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>0.0216154</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3072,12 +3544,20 @@
         </is>
       </c>
       <c r="K48" t="n">
+        <v>0.0216154</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>14.9762</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>15.0739</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48" t="n">
         <v>14.9732</v>
       </c>
     </row>
@@ -3099,11 +3579,13 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>14.9605</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -3127,14 +3609,22 @@
         </is>
       </c>
       <c r="K49" t="n">
+        <v>14.9605</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>14.9767</v>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
         <v>14.9731</v>
       </c>
     </row>
@@ -3156,11 +3646,13 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>14.9621</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3184,14 +3676,22 @@
         </is>
       </c>
       <c r="K50" t="n">
+        <v>14.9621</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>14.9765</v>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
         <v>14.9728</v>
       </c>
     </row>
@@ -3213,11 +3713,13 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>9.19642</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3241,12 +3743,20 @@
         </is>
       </c>
       <c r="K51" t="n">
+        <v>9.19642</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>14.9768</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>15.0729</v>
       </c>
-      <c r="M51" t="n">
+      <c r="O51" t="n">
         <v>14.9733</v>
       </c>
     </row>
@@ -3268,11 +3778,13 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>19.0891</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3296,14 +3808,22 @@
         </is>
       </c>
       <c r="K52" t="n">
+        <v>19.0891</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>19.1096</v>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O52" t="n">
         <v>19.1044</v>
       </c>
     </row>
@@ -3325,11 +3845,13 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>19.0876</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3353,14 +3875,22 @@
         </is>
       </c>
       <c r="K53" t="n">
+        <v>19.0876</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>19.1096</v>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
         <v>19.1049</v>
       </c>
     </row>
@@ -3382,11 +3912,13 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>19.0877</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3410,14 +3942,22 @@
         </is>
       </c>
       <c r="K54" t="n">
+        <v>19.0877</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>19.1101</v>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
         <v>19.1046</v>
       </c>
     </row>
@@ -3439,11 +3979,13 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>19.0891</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3467,14 +4009,22 @@
         </is>
       </c>
       <c r="K55" t="n">
+        <v>19.0891</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>19.1098</v>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
         <v>19.1043</v>
       </c>
     </row>
@@ -3496,11 +4046,13 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>19.0866</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3524,14 +4076,22 @@
         </is>
       </c>
       <c r="K56" t="n">
+        <v>19.0866</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>19.1102</v>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
         <v>19.105</v>
       </c>
     </row>
@@ -3553,11 +4113,13 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>21.0218</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3581,14 +4143,22 @@
         </is>
       </c>
       <c r="K57" t="n">
+        <v>21.0218</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>21.0452</v>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O57" t="n">
         <v>21.0391</v>
       </c>
     </row>
@@ -3610,11 +4180,13 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>21.0203</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3638,14 +4210,22 @@
         </is>
       </c>
       <c r="K58" t="n">
+        <v>21.0203</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>21.0452</v>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O58" t="n">
         <v>21.0396</v>
       </c>
     </row>
@@ -3667,11 +4247,13 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>21.0204</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3695,14 +4277,22 @@
         </is>
       </c>
       <c r="K59" t="n">
+        <v>21.0204</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>21.0457</v>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O59" t="n">
         <v>21.0393</v>
       </c>
     </row>
@@ -3724,11 +4314,13 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>21.0218</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3752,14 +4344,22 @@
         </is>
       </c>
       <c r="K60" t="n">
+        <v>21.0218</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>21.0455</v>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O60" t="n">
         <v>21.039</v>
       </c>
     </row>
@@ -3781,11 +4381,13 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>21.0194</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3809,14 +4411,22 @@
         </is>
       </c>
       <c r="K61" t="n">
+        <v>21.0194</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>21.0459</v>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O61" t="n">
         <v>21.0397</v>
       </c>
     </row>
@@ -3838,11 +4448,13 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>22.8743</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3866,14 +4478,22 @@
         </is>
       </c>
       <c r="K62" t="n">
+        <v>22.8743</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>22.9006</v>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
         <v>22.8935</v>
       </c>
     </row>
@@ -3895,11 +4515,13 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>22.8729</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3923,14 +4545,22 @@
         </is>
       </c>
       <c r="K63" t="n">
+        <v>22.8729</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>22.9006</v>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O63" t="n">
         <v>22.8941</v>
       </c>
     </row>
@@ -3952,11 +4582,13 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>22.8729</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3980,14 +4612,22 @@
         </is>
       </c>
       <c r="K64" t="n">
+        <v>22.8729</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>22.9012</v>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
         <v>22.8938</v>
       </c>
     </row>
@@ -4009,11 +4649,13 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>22.8743</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -4037,14 +4679,22 @@
         </is>
       </c>
       <c r="K65" t="n">
+        <v>22.8743</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>22.9009</v>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O65" t="n">
         <v>22.8935</v>
       </c>
     </row>
@@ -4066,11 +4716,13 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>22.872</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -4094,14 +4746,22 @@
         </is>
       </c>
       <c r="K66" t="n">
+        <v>22.872</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>22.9013</v>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
         <v>22.8942</v>
       </c>
     </row>
@@ -4123,11 +4783,13 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>26.3578</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -4151,14 +4813,22 @@
         </is>
       </c>
       <c r="K67" t="n">
+        <v>26.3578</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>26.3896</v>
       </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
         <v>26.3805</v>
       </c>
     </row>
@@ -4180,11 +4850,13 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>26.3565</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -4208,14 +4880,22 @@
         </is>
       </c>
       <c r="K68" t="n">
+        <v>26.3565</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>26.3897</v>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O68" t="n">
         <v>26.3811</v>
       </c>
     </row>
@@ -4237,11 +4917,13 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>26.3565</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -4265,14 +4947,22 @@
         </is>
       </c>
       <c r="K69" t="n">
+        <v>26.3565</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>26.3902</v>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O69" t="n">
         <v>26.3808</v>
       </c>
     </row>
@@ -4294,11 +4984,13 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>26.3578</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4322,14 +5014,22 @@
         </is>
       </c>
       <c r="K70" t="n">
+        <v>26.3578</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>26.3899</v>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O70" t="n">
         <v>13.234</v>
       </c>
     </row>
@@ -4351,11 +5051,13 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>26.3557</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -4379,14 +5081,22 @@
         </is>
       </c>
       <c r="K71" t="n">
+        <v>26.3557</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>26.3904</v>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O71" t="n">
         <v>26.3813</v>
       </c>
     </row>
